--- a/biology/Botanique/Hellébore_de_Corse/Hellébore_de_Corse.xlsx
+++ b/biology/Botanique/Hellébore_de_Corse/Hellébore_de_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore_de_Corse</t>
+          <t>Hellébore_de_Corse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helleborus argutifolius
 Helleborus argutifolius Viv., l'Hellébore de Corse, est une espèce de plantes à fleurs de la famille des Ranunculaceae endémique de Corse et de Sardaigne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore_de_Corse</t>
+          <t>Hellébore_de_Corse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Helleborus lividus Aiton subsp. corsicus (Willd.) Tutin
 Helleborus corsicus Willd.</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore_de_Corse</t>
+          <t>Hellébore_de_Corse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Helleborus argutifolius est une espèce caulescente, qui pousse dans les taillis sur les talus et dans les ravins. C’est le plus grand des hellébores, qui peut en conditions favorables atteindre 1,5 m voire plus.
 Les feuilles vert clair, composées de trois folioles dentées en dents de scie, sont toutes caulinaires.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore_de_Corse</t>
+          <t>Hellébore_de_Corse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce préfère les situations ensoleillées et est moyennement rustique. Elle est par ailleurs moins persistante que les espèces acaulescentes. Elle est au mieux de sa forme au cours des deuxième et troisième années.
 Lorsqu’ils croissent ensemble, Helleborus argutifolius s’hybride avec Helleborus lividus, l'autre espèce de la section Chenopus. L’hybride, Helleborus ×sternii, est de forme intermédiaire. Comme cet hybride est fertile, il peut se recroiser avec les parents et former ainsi des populations complexes dont les exemplaires sont proches de l’un ou de l’autre parent. Il est d’ailleurs vraisemblable que la plupart des exemplaires de Helleborus lividus en culture sont partiellement hybridés avec Helleborus argutifolius.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hell%C3%A9bore_de_Corse</t>
+          <t>Hellébore_de_Corse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Helleborus argutifolius est souvent considéré comme une sous-espèce de Helleborus lividus, une espèce endémique à Majorque.
 Helleborus lividus, moins rustique, s’en distingue par sa taille moins élevée (40 cm), ses feuilles vert foncé peu dentées et ses fleurs plus petites et moins nombreuses souvent teintées de rose ou de pourpre à la face extérieure.
